--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arcadier\git\Arctick\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Arctick\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BB0DBD-39AE-428A-AC10-A21073DFF5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86DE8D-730F-4DAD-BD4C-086393CC462E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
-    <sheet name="Admin Category" sheetId="1" r:id="rId2"/>
-    <sheet name="Admin Delivery " sheetId="2" r:id="rId3"/>
-    <sheet name="Merchant Delivery " sheetId="3" r:id="rId4"/>
-    <sheet name="Seller Name" sheetId="4" r:id="rId5"/>
-    <sheet name="Buyer Name" sheetId="5" r:id="rId6"/>
-    <sheet name="Custom Fields" sheetId="6" r:id="rId7"/>
-    <sheet name="AllCustomField" sheetId="7" r:id="rId8"/>
-    <sheet name="Item List" sheetId="9" r:id="rId9"/>
+    <sheet name="Language" sheetId="12" r:id="rId2"/>
+    <sheet name="Admin Category" sheetId="1" r:id="rId3"/>
+    <sheet name="Admin Delivery " sheetId="2" r:id="rId4"/>
+    <sheet name="Merchant Delivery " sheetId="3" r:id="rId5"/>
+    <sheet name="Seller Name" sheetId="4" r:id="rId6"/>
+    <sheet name="Buyer Name" sheetId="5" r:id="rId7"/>
+    <sheet name="Custom Fields" sheetId="6" r:id="rId8"/>
+    <sheet name="AllCustomField" sheetId="7" r:id="rId9"/>
+    <sheet name="Item List" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1120">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3205,160 +3206,199 @@
     <t>Server</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Strada Statale 130</t>
+  </si>
+  <si>
+    <t>Dorzano, Biella 13881</t>
+  </si>
+  <si>
+    <t>+631234567890</t>
+  </si>
+  <si>
+    <t>Marketplace</t>
+  </si>
+  <si>
+    <t>arcadierteam@gmail.com</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Admin Google</t>
+  </si>
+  <si>
+    <t>Admin Facebook</t>
+  </si>
+  <si>
+    <t>Admin Google Pass</t>
+  </si>
+  <si>
+    <t>Admin Facebook Pass</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Coverimage</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\LogoLayout\\logo2.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\LogoLayout\\coverimage3.jpg</t>
+  </si>
+  <si>
+    <t>Admin Fee</t>
+  </si>
+  <si>
+    <t>Theme 2</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\1.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\2.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\3.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\4.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\5.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\7.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\8.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\9.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\10.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\11.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\13.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\14.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\16.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\17.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\18.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\19.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\20.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\21.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\22.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\23.png</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Bespoke</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Strada Statale 130</t>
-  </si>
-  <si>
-    <t>Dorzano, Biella 13881</t>
-  </si>
-  <si>
-    <t>+631234567890</t>
-  </si>
-  <si>
-    <t>Marketplace</t>
-  </si>
-  <si>
-    <t>arcadierteam@gmail.com</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>Admin Google</t>
-  </si>
-  <si>
-    <t>Admin Facebook</t>
-  </si>
-  <si>
-    <t>Admin Google Pass</t>
-  </si>
-  <si>
-    <t>Admin Facebook Pass</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Coverimage</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\LogoLayout\\logo2.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\LogoLayout\\coverimage3.jpg</t>
-  </si>
-  <si>
-    <t>Admin Fee</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>Theme 2</t>
-  </si>
-  <si>
-    <t>1210space1</t>
-  </si>
-  <si>
-    <t>1210space2</t>
-  </si>
-  <si>
-    <t>1210space3</t>
+    <t>0210BP1</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\1.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\3.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\4.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\5.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\7.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\8.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\9.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\11.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\13.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\14.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\16.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\17.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\18.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\19.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\20.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\21.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\22.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\23.png</t>
-  </si>
-  <si>
-    <t>Image</t>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Chinese (Simplified)</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Turkish</t>
   </si>
 </sst>
 </file>
@@ -3508,7 +3548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,6 +3636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3911,10 +3952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,22 +3983,22 @@
         <v>1054</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>1047</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>1067</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>1068</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>1070</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>123</v>
@@ -3981,191 +4022,3511 @@
         <v>810</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="S1" s="31" t="s">
         <v>1053</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>1055</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="I2" s="31" t="s">
         <v>1056</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>1057</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>1058</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="L2" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>1059</v>
       </c>
-      <c r="L2" s="31" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="33" t="s">
         <v>1060</v>
       </c>
-      <c r="N2" s="33" t="s">
-        <v>1061</v>
-      </c>
       <c r="O2" s="33" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="P2" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>1074</v>
       </c>
-      <c r="Q2" s="34" t="s">
-        <v>1076</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>1077</v>
-      </c>
       <c r="S2" s="31" t="s">
-        <v>1062</v>
+        <v>1102</v>
       </c>
       <c r="T2" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>1079</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>1073</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>1074</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>1076</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>1081</v>
-      </c>
-      <c r="T3" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>1080</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>1073</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>1074</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>1076</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>1082</v>
-      </c>
-      <c r="T4" s="31">
-        <v>20</v>
-      </c>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{BB45C7F2-3FEA-4FD4-91BF-7C08B068B1D9}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{C5AE691C-E938-4F77-A31D-46812000505F}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{E5B4AF99-B636-43EF-AA10-82029C700084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
+  <dimension ref="A1:N79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>924</v>
+      </c>
+      <c r="F1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1" t="s">
+        <v>833</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>933</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G2" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="G4" s="8">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G5" s="8">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="G6" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G7" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G9" s="8">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="G10" s="8">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="G11" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C12" t="s">
+        <v>944</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G12" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="G14" s="8">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="G15" s="8">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="G16" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="G17" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G19" s="8">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="G20" s="8">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I20" s="30">
+        <v>30</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="G21" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I21" s="30">
+        <v>35</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C22" t="s">
+        <v>944</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G22" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I23" s="30">
+        <v>15</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G24" s="8">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G25" s="8">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I25" s="30">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="G26" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I26" s="30">
+        <v>35</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="G27" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I28" s="30">
+        <v>35</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="G29" s="8">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G30" s="8">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I30" s="30">
+        <v>15</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="G31" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I31" s="30">
+        <v>20</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C32" t="s">
+        <v>944</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="G32" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I33" s="30">
+        <v>35</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="G34" s="8">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G35" s="8">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I35" s="30">
+        <v>35</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="G36" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I36" s="30">
+        <v>60</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="G37" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="G39" s="8">
+        <v>14</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="G40" s="8">
+        <v>17</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="G41" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C42" t="s">
+        <v>944</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="G42" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="G44" s="8">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="G45" s="8">
+        <v>17</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="G46" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="G47" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="G49" s="8">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="G50" s="8">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="G51" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C52" t="s">
+        <v>944</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="G52" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="G54" s="8">
+        <v>14</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="G55" s="8">
+        <v>17</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="G56" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I58" s="29"/>
+      <c r="J58" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G59" s="8">
+        <v>14</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G60" s="8">
+        <v>17</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G61" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C62" t="s">
+        <v>944</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G62" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I63" s="29"/>
+      <c r="J63" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G64" s="8">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G65" s="8">
+        <v>17</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G66" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G67" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I68" s="29"/>
+      <c r="J68" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G69" s="8">
+        <v>14</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G70" s="8">
+        <v>17</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G71" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C72" t="s">
+        <v>944</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G72" s="8">
+        <v>14.25</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I73" s="29"/>
+      <c r="J73" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G74" s="8">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G75" s="8">
+        <v>15</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G76" s="8">
+        <v>15</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G77" s="8">
+        <v>15</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G78" s="8">
+        <v>15</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M79" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2071D1-0EBD-4D0F-8C4E-9114D9657196}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D89469-70B5-42D0-9A59-1DD22F5E00A8}">
   <dimension ref="A1:D80"/>
   <sheetViews>
@@ -4203,7 +7564,7 @@
         <v>720</v>
       </c>
       <c r="C2" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="D2" t="s">
         <v>723</v>
@@ -4217,7 +7578,7 @@
         <v>720</v>
       </c>
       <c r="C3" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="D3" t="s">
         <v>724</v>
@@ -4231,7 +7592,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="D4" t="s">
         <v>725</v>
@@ -4245,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="D5" t="s">
         <v>726</v>
@@ -4259,7 +7620,7 @@
         <v>720</v>
       </c>
       <c r="C6" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D6" t="s">
         <v>727</v>
@@ -4273,7 +7634,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D7" t="s">
         <v>728</v>
@@ -4287,7 +7648,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D8" t="s">
         <v>729</v>
@@ -4301,7 +7662,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D9" t="s">
         <v>730</v>
@@ -4315,7 +7676,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D10" t="s">
         <v>731</v>
@@ -4329,7 +7690,7 @@
         <v>720</v>
       </c>
       <c r="C11" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D11" t="s">
         <v>732</v>
@@ -4343,7 +7704,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D12" t="s">
         <v>733</v>
@@ -4357,7 +7718,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D13" t="s">
         <v>734</v>
@@ -4371,7 +7732,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D14" t="s">
         <v>735</v>
@@ -4385,7 +7746,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D15" t="s">
         <v>736</v>
@@ -4399,7 +7760,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D16" t="s">
         <v>737</v>
@@ -4413,7 +7774,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D17" t="s">
         <v>738</v>
@@ -4427,7 +7788,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D18" t="s">
         <v>739</v>
@@ -4441,7 +7802,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D19" t="s">
         <v>740</v>
@@ -4455,7 +7816,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D20" t="s">
         <v>741</v>
@@ -4469,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D21" t="s">
         <v>742</v>
@@ -4483,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D22" t="s">
         <v>743</v>
@@ -4497,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D23" t="s">
         <v>744</v>
@@ -4511,7 +7872,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D24" t="s">
         <v>745</v>
@@ -4525,7 +7886,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D25" t="s">
         <v>746</v>
@@ -4539,7 +7900,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D26" t="s">
         <v>747</v>
@@ -4553,7 +7914,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D27" t="s">
         <v>748</v>
@@ -4567,7 +7928,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D28" t="s">
         <v>749</v>
@@ -4581,7 +7942,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D29" t="s">
         <v>750</v>
@@ -4595,7 +7956,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D30" t="s">
         <v>751</v>
@@ -4609,7 +7970,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="D31" t="s">
         <v>752</v>
@@ -4623,7 +7984,7 @@
         <v>720</v>
       </c>
       <c r="C32" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D32" t="s">
         <v>753</v>
@@ -4637,7 +7998,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D33" t="s">
         <v>754</v>
@@ -4651,7 +8012,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D34" t="s">
         <v>755</v>
@@ -4665,7 +8026,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D35" t="s">
         <v>756</v>
@@ -4679,7 +8040,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D36" t="s">
         <v>757</v>
@@ -4693,7 +8054,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D37" t="s">
         <v>758</v>
@@ -4707,7 +8068,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D38" t="s">
         <v>759</v>
@@ -4721,7 +8082,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D39" t="s">
         <v>760</v>
@@ -4735,7 +8096,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D40" t="s">
         <v>761</v>
@@ -4749,7 +8110,7 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D41" t="s">
         <v>762</v>
@@ -4763,7 +8124,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D42" t="s">
         <v>763</v>
@@ -4777,7 +8138,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D43" t="s">
         <v>764</v>
@@ -4791,7 +8152,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D44" t="s">
         <v>765</v>
@@ -4805,7 +8166,7 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D45" t="s">
         <v>766</v>
@@ -4819,7 +8180,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D46" t="s">
         <v>767</v>
@@ -4833,7 +8194,7 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D47" t="s">
         <v>768</v>
@@ -4847,7 +8208,7 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D48" t="s">
         <v>769</v>
@@ -4861,7 +8222,7 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D49" t="s">
         <v>770</v>
@@ -4875,7 +8236,7 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D50" t="s">
         <v>771</v>
@@ -4889,7 +8250,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D51" t="s">
         <v>772</v>
@@ -4903,7 +8264,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D52" t="s">
         <v>773</v>
@@ -4917,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D53" t="s">
         <v>774</v>
@@ -4931,7 +8292,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="D54" t="s">
         <v>775</v>
@@ -4945,7 +8306,7 @@
         <v>720</v>
       </c>
       <c r="C55" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D55" t="s">
         <v>776</v>
@@ -4959,7 +8320,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D56" t="s">
         <v>777</v>
@@ -4973,7 +8334,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D57" t="s">
         <v>778</v>
@@ -4987,7 +8348,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D58" t="s">
         <v>779</v>
@@ -5001,7 +8362,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D59" t="s">
         <v>780</v>
@@ -5015,7 +8376,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D60" t="s">
         <v>781</v>
@@ -5029,7 +8390,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D61" t="s">
         <v>782</v>
@@ -5043,7 +8404,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D62" t="s">
         <v>783</v>
@@ -5057,7 +8418,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="D63" t="s">
         <v>784</v>
@@ -5071,7 +8432,7 @@
         <v>720</v>
       </c>
       <c r="C64" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="D64" t="s">
         <v>785</v>
@@ -5085,7 +8446,7 @@
         <v>720</v>
       </c>
       <c r="C65" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="D65" t="s">
         <v>786</v>
@@ -5099,7 +8460,7 @@
         <v>720</v>
       </c>
       <c r="C66" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="D66" t="s">
         <v>787</v>
@@ -5113,7 +8474,7 @@
         <v>720</v>
       </c>
       <c r="C67" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="D67" t="s">
         <v>788</v>
@@ -5127,7 +8488,7 @@
         <v>720</v>
       </c>
       <c r="C68" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="D68" t="s">
         <v>789</v>
@@ -5141,7 +8502,7 @@
         <v>720</v>
       </c>
       <c r="C69" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="D69" t="s">
         <v>790</v>
@@ -5155,7 +8516,7 @@
         <v>720</v>
       </c>
       <c r="C70" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="D70" t="s">
         <v>791</v>
@@ -5169,7 +8530,7 @@
         <v>720</v>
       </c>
       <c r="C71" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="D71" t="s">
         <v>792</v>
@@ -5183,7 +8544,7 @@
         <v>720</v>
       </c>
       <c r="C72" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="D72" t="s">
         <v>793</v>
@@ -5197,7 +8558,7 @@
         <v>720</v>
       </c>
       <c r="C73" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="D73" t="s">
         <v>794</v>
@@ -5211,7 +8572,7 @@
         <v>720</v>
       </c>
       <c r="C74" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="D74" t="s">
         <v>795</v>
@@ -5225,7 +8586,7 @@
         <v>720</v>
       </c>
       <c r="C75" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="D75" t="s">
         <v>796</v>
@@ -5239,7 +8600,7 @@
         <v>720</v>
       </c>
       <c r="C76" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="D76" t="s">
         <v>797</v>
@@ -5253,7 +8614,7 @@
         <v>720</v>
       </c>
       <c r="C77" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="D77" t="s">
         <v>798</v>
@@ -5267,7 +8628,7 @@
         <v>720</v>
       </c>
       <c r="C78" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="D78" t="s">
         <v>799</v>
@@ -5278,7 +8639,7 @@
         <v>721</v>
       </c>
       <c r="C79" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="D79" t="s">
         <v>800</v>
@@ -5289,7 +8650,7 @@
         <v>722</v>
       </c>
       <c r="C80" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="D80" t="s">
         <v>801</v>
@@ -5302,7 +8663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F829671-6FD4-4582-BD2D-2331AB94B0C3}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
@@ -6169,7 +9530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE6B43-687D-4690-9912-AB38F18F794C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -6471,12 +9832,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0C2BDA-D892-4B24-9F47-C0E0D73BE072}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6494,7 +9855,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>149</v>
@@ -7566,7 +10927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1B755A-BE89-4A69-9C59-9687521C23FC}">
   <dimension ref="A1:Y23"/>
   <sheetViews>
@@ -8673,7 +12034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB8AEC5-3E6B-4D56-B1DB-99094E1E4BA7}">
   <dimension ref="A2:Z59"/>
   <sheetViews>
@@ -11133,7 +14494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110ACE19-8D0C-4E1C-9473-C64924AB9F81}">
   <dimension ref="A1:D72"/>
   <sheetViews>
@@ -12161,3294 +15522,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
-  <dimension ref="A1:N79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="76.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>924</v>
-      </c>
-      <c r="F1" t="s">
-        <v>926</v>
-      </c>
-      <c r="G1" t="s">
-        <v>833</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>932</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>933</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>934</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>1025</v>
-      </c>
-      <c r="N1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C2" t="s">
-        <v>944</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="G2" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="G4" s="8">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="G5" s="8">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="G6" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="G7" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="G9" s="8">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="G10" s="8">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="G11" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C12" t="s">
-        <v>944</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="G12" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="G14" s="8">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="G15" s="8">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="G16" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="G17" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="G19" s="8">
-        <v>14</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="G20" s="8">
-        <v>17</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I20" s="30">
-        <v>30</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="G21" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I21" s="30">
-        <v>35</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C22" t="s">
-        <v>944</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="G22" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I23" s="30">
-        <v>15</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="G24" s="8">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="G25" s="8">
-        <v>17</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I25" s="30">
-        <v>20</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="G26" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I26" s="30">
-        <v>35</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="G27" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I28" s="30">
-        <v>35</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="G29" s="8">
-        <v>14</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="G30" s="8">
-        <v>17</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I30" s="30">
-        <v>15</v>
-      </c>
-      <c r="J30" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="G31" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I31" s="30">
-        <v>20</v>
-      </c>
-      <c r="J31" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C32" t="s">
-        <v>944</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="G32" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I33" s="30">
-        <v>35</v>
-      </c>
-      <c r="J33" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="G34" s="8">
-        <v>14</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="G35" s="8">
-        <v>17</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I35" s="30">
-        <v>35</v>
-      </c>
-      <c r="J35" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="G36" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I36" s="30">
-        <v>60</v>
-      </c>
-      <c r="J36" s="8">
-        <v>1000</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="G37" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="G39" s="8">
-        <v>14</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="G40" s="8">
-        <v>17</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="G41" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C42" t="s">
-        <v>944</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="G42" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="G44" s="8">
-        <v>14</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="G45" s="8">
-        <v>17</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="G46" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="G47" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="G49" s="8">
-        <v>14</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="G50" s="8">
-        <v>17</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="G51" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C52" t="s">
-        <v>944</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="G52" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="G54" s="8">
-        <v>14</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="G55" s="8">
-        <v>17</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="G56" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G57" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G59" s="8">
-        <v>14</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G60" s="8">
-        <v>17</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G61" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C62" t="s">
-        <v>944</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G62" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G64" s="8">
-        <v>14</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G65" s="8">
-        <v>17</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G66" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G67" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G69" s="8">
-        <v>14</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G70" s="8">
-        <v>17</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G71" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C72" t="s">
-        <v>944</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G72" s="8">
-        <v>14.25</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G74" s="8">
-        <v>15</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G75" s="8">
-        <v>15</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G76" s="8">
-        <v>15</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G77" s="8">
-        <v>15</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G78" s="8">
-        <v>15</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M79" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Arctick\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86DE8D-730F-4DAD-BD4C-086393CC462E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F94DF-7116-4465-B3D0-518535BDB3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="1132">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3338,67 +3338,103 @@
     <t>Image</t>
   </si>
   <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Chinese (Simplified)</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>0220BP100COMM1</t>
+  </si>
+  <si>
+    <t>0220BP0COMM2</t>
+  </si>
+  <si>
+    <t>0220BP100COMM3</t>
+  </si>
+  <si>
+    <t>0220BP0COMM4</t>
+  </si>
+  <si>
+    <t>0220BP100COMM5</t>
+  </si>
+  <si>
+    <t>0220BP0COMM6</t>
+  </si>
+  <si>
+    <t>0220BP100COMM7</t>
+  </si>
+  <si>
+    <t>0220BP0COMM8</t>
+  </si>
+  <si>
+    <t>0220BP100COMM9</t>
+  </si>
+  <si>
+    <t>0220BP0COMM10</t>
+  </si>
+  <si>
+    <t>0220ST0COMM</t>
+  </si>
+  <si>
+    <t>0220ST100COMM</t>
+  </si>
+  <si>
     <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>0210BP1</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Chinese (Traditional)</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Russian</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Dutch</t>
-  </si>
-  <si>
-    <t>Swedish</t>
-  </si>
-  <si>
-    <t>Chinese (Simplified)</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>Turkish</t>
   </si>
 </sst>
 </file>
@@ -3952,10 +3988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4042,13 +4078,13 @@
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>1055</v>
@@ -4063,7 +4099,7 @@
         <v>1058</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>1059</v>
@@ -4078,54 +4114,578 @@
         <v>1072</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1099</v>
+        <v>1131</v>
       </c>
       <c r="R2" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>1102</v>
+        <v>1117</v>
       </c>
       <c r="T2" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="34"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T4" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T6" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T8" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T10" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T12" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T13" s="31">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{BB45C7F2-3FEA-4FD4-91BF-7C08B068B1D9}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{C29D5C53-FC26-4924-AD0E-D65FD2504398}"/>
+    <hyperlink ref="N4:N13" r:id="rId3" display="arcadierteam@gmail.com" xr:uid="{A323ECED-99C2-4680-9F28-D97EFEE86C98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
     <ignoredError sqref="K2" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -7426,7 +7986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2071D1-0EBD-4D0F-8C4E-9114D9657196}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -7437,87 +7997,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Arctick\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F94DF-7116-4465-B3D0-518535BDB3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B3912-F624-47D4-8CC7-1171B08D34F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -3383,12 +3383,6 @@
     <t>Hebrew</t>
   </si>
   <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
@@ -3435,6 +3429,12 @@
   </si>
   <si>
     <t>Bespoke</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -3584,7 +3584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3673,6 +3673,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3990,7 +3991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+    <sheetView topLeftCell="H13" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -4078,13 +4079,13 @@
     </row>
     <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>1055</v>
@@ -4099,7 +4100,7 @@
         <v>1058</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>1059</v>
@@ -4114,13 +4115,13 @@
         <v>1072</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R2" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T2" s="31">
         <v>100</v>
@@ -4128,13 +4129,13 @@
     </row>
     <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H3" s="31" t="s">
         <v>1055</v>
@@ -4149,7 +4150,7 @@
         <v>1058</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="M3" s="31" t="s">
         <v>1059</v>
@@ -4164,13 +4165,13 @@
         <v>1072</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S3" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T3" s="31">
         <v>0</v>
@@ -4178,13 +4179,13 @@
     </row>
     <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>1055</v>
@@ -4199,7 +4200,7 @@
         <v>1058</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="M4" s="31" t="s">
         <v>1059</v>
@@ -4214,13 +4215,13 @@
         <v>1072</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R4" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S4" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T4" s="31">
         <v>100</v>
@@ -4228,13 +4229,13 @@
     </row>
     <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>1055</v>
@@ -4249,7 +4250,7 @@
         <v>1058</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>1059</v>
@@ -4264,13 +4265,13 @@
         <v>1072</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R5" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T5" s="31">
         <v>0</v>
@@ -4278,13 +4279,13 @@
     </row>
     <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H6" s="31" t="s">
         <v>1055</v>
@@ -4299,7 +4300,7 @@
         <v>1058</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="M6" s="31" t="s">
         <v>1059</v>
@@ -4314,13 +4315,13 @@
         <v>1072</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R6" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T6" s="31">
         <v>100</v>
@@ -4328,13 +4329,13 @@
     </row>
     <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>1055</v>
@@ -4349,7 +4350,7 @@
         <v>1058</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="M7" s="31" t="s">
         <v>1059</v>
@@ -4364,13 +4365,13 @@
         <v>1072</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R7" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T7" s="31">
         <v>0</v>
@@ -4378,13 +4379,13 @@
     </row>
     <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>1055</v>
@@ -4399,7 +4400,7 @@
         <v>1058</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="M8" s="31" t="s">
         <v>1059</v>
@@ -4414,13 +4415,13 @@
         <v>1072</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R8" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S8" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T8" s="31">
         <v>100</v>
@@ -4428,13 +4429,13 @@
     </row>
     <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>1055</v>
@@ -4449,7 +4450,7 @@
         <v>1058</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="M9" s="31" t="s">
         <v>1059</v>
@@ -4464,13 +4465,13 @@
         <v>1072</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R9" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S9" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T9" s="31">
         <v>0</v>
@@ -4478,13 +4479,13 @@
     </row>
     <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>1055</v>
@@ -4499,7 +4500,7 @@
         <v>1058</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="M10" s="31" t="s">
         <v>1059</v>
@@ -4514,13 +4515,13 @@
         <v>1072</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R10" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T10" s="31">
         <v>100</v>
@@ -4528,13 +4529,13 @@
     </row>
     <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>1055</v>
@@ -4549,7 +4550,7 @@
         <v>1058</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="M11" s="31" t="s">
         <v>1059</v>
@@ -4564,13 +4565,13 @@
         <v>1072</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="R11" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T11" s="31">
         <v>0</v>
@@ -4578,13 +4579,13 @@
     </row>
     <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>1055</v>
@@ -4599,7 +4600,7 @@
         <v>1058</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="M12" s="31" t="s">
         <v>1059</v>
@@ -4614,13 +4615,13 @@
         <v>1072</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R12" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S12" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T12" s="31">
         <v>100</v>
@@ -4628,13 +4629,13 @@
     </row>
     <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>1055</v>
@@ -4649,7 +4650,7 @@
         <v>1058</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="M13" s="31" t="s">
         <v>1059</v>
@@ -4664,13 +4665,13 @@
         <v>1072</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="R13" s="31" t="s">
         <v>1074</v>
       </c>
       <c r="S13" s="31" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="T13" s="31">
         <v>0</v>
@@ -7986,8 +7987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2071D1-0EBD-4D0F-8C4E-9114D9657196}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8001,83 +8002,83 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1100</v>
+      <c r="A2" s="36" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1115</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Arctick\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B3912-F624-47D4-8CC7-1171B08D34F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700E994-352E-4343-A793-1EF0FE165D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1120">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3254,87 +3254,12 @@
     <t>Coverimage</t>
   </si>
   <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\LogoLayout\\logo2.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\LogoLayout\\coverimage3.jpg</t>
-  </si>
-  <si>
     <t>Admin Fee</t>
   </si>
   <si>
     <t>Theme 2</t>
   </si>
   <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\1.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\3.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\4.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\5.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\7.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\8.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\9.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\11.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\13.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\14.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\16.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\17.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\18.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\19.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\20.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\21.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\22.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\Arcadier\\git\\Arctick\\Images\\Category\\23.png</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -3383,51 +3308,12 @@
     <t>Hebrew</t>
   </si>
   <si>
-    <t>Space</t>
-  </si>
-  <si>
     <t>SGD</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>0220BP100COMM1</t>
-  </si>
-  <si>
-    <t>0220BP0COMM2</t>
-  </si>
-  <si>
-    <t>0220BP100COMM3</t>
-  </si>
-  <si>
-    <t>0220BP0COMM4</t>
-  </si>
-  <si>
-    <t>0220BP100COMM5</t>
-  </si>
-  <si>
-    <t>0220BP0COMM6</t>
-  </si>
-  <si>
-    <t>0220BP100COMM7</t>
-  </si>
-  <si>
-    <t>0220BP0COMM8</t>
-  </si>
-  <si>
-    <t>0220BP100COMM9</t>
-  </si>
-  <si>
-    <t>0220BP0COMM10</t>
-  </si>
-  <si>
-    <t>0220ST0COMM</t>
-  </si>
-  <si>
-    <t>0220ST100COMM</t>
-  </si>
-  <si>
     <t>Bespoke</t>
   </si>
   <si>
@@ -3435,6 +3321,84 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo2.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\coverimage3.jpg</t>
+  </si>
+  <si>
+    <t>0319BPDEL2</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\1.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\2.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\3.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\4.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\5.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\6.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\7.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\8.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\9.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\10.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\11.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\12.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\13.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\14.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\15.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\16.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\17.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\18.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\19.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\20.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\21.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\22.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\23.png</t>
   </si>
 </sst>
 </file>
@@ -3989,27 +3953,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.7109375" style="31" customWidth="1"/>
-    <col min="3" max="5" width="17.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="30" style="31" customWidth="1"/>
+    <col min="4" max="5" width="17.140625" style="31" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="31" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="31" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="31" customWidth="1"/>
     <col min="13" max="13" width="12" style="31" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" style="31" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="52.140625" style="31" customWidth="1"/>
+    <col min="16" max="16" width="70.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23.85546875" style="31" customWidth="1"/>
     <col min="18" max="19" width="11.5703125" style="31" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="31"/>
@@ -4074,18 +4039,18 @@
         <v>1053</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>1064</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>1055</v>
@@ -4100,7 +4065,7 @@
         <v>1058</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>1059</v>
@@ -4109,587 +4074,88 @@
         <v>1060</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>1071</v>
+        <v>1094</v>
       </c>
       <c r="P2" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>1072</v>
       </c>
-      <c r="Q2" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>1074</v>
-      </c>
       <c r="S2" s="31" t="s">
-        <v>1115</v>
+        <v>1089</v>
       </c>
       <c r="T2" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T3" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T4" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>1120</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>1121</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T6" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q7" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>1123</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T8" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>1125</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T10" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>1129</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T11" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>1114</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S12" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T12" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>1114</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>1115</v>
-      </c>
-      <c r="T13" s="31">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="34"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="34"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="34"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="34"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="34"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{BB45C7F2-3FEA-4FD4-91BF-7C08B068B1D9}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{C29D5C53-FC26-4924-AD0E-D65FD2504398}"/>
-    <hyperlink ref="N4:N13" r:id="rId3" display="arcadierteam@gmail.com" xr:uid="{A323ECED-99C2-4680-9F28-D97EFEE86C98}"/>
+    <hyperlink ref="N2:N5" r:id="rId1" display="arcadierteam@gmail.com" xr:uid="{A323ECED-99C2-4680-9F28-D97EFEE86C98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <ignoredErrors>
-    <ignoredError sqref="K2" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7987,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2071D1-0EBD-4D0F-8C4E-9114D9657196}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -7998,87 +7464,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>1130</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1109</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1110</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1131</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -8091,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D89469-70B5-42D0-9A59-1DD22F5E00A8}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C85" activeCellId="1" sqref="B80 C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8125,7 +7591,7 @@
         <v>720</v>
       </c>
       <c r="C2" t="s">
-        <v>1075</v>
+        <v>1097</v>
       </c>
       <c r="D2" t="s">
         <v>723</v>
@@ -8139,7 +7605,7 @@
         <v>720</v>
       </c>
       <c r="C3" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
       <c r="D3" t="s">
         <v>724</v>
@@ -8153,7 +7619,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
       <c r="D4" t="s">
         <v>725</v>
@@ -8167,7 +7633,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>1076</v>
+        <v>1098</v>
       </c>
       <c r="D5" t="s">
         <v>726</v>
@@ -8181,7 +7647,7 @@
         <v>720</v>
       </c>
       <c r="C6" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="D6" t="s">
         <v>727</v>
@@ -8195,7 +7661,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="D7" t="s">
         <v>728</v>
@@ -8209,7 +7675,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="D8" t="s">
         <v>729</v>
@@ -8223,7 +7689,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="D9" t="s">
         <v>730</v>
@@ -8237,7 +7703,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1077</v>
+        <v>1099</v>
       </c>
       <c r="D10" t="s">
         <v>731</v>
@@ -8251,7 +7717,7 @@
         <v>720</v>
       </c>
       <c r="C11" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D11" t="s">
         <v>732</v>
@@ -8265,7 +7731,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D12" t="s">
         <v>733</v>
@@ -8279,7 +7745,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D13" t="s">
         <v>734</v>
@@ -8293,7 +7759,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D14" t="s">
         <v>735</v>
@@ -8307,7 +7773,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D15" t="s">
         <v>736</v>
@@ -8321,7 +7787,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D16" t="s">
         <v>737</v>
@@ -8335,7 +7801,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D17" t="s">
         <v>738</v>
@@ -8349,7 +7815,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D18" t="s">
         <v>739</v>
@@ -8363,7 +7829,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D19" t="s">
         <v>740</v>
@@ -8377,7 +7843,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D20" t="s">
         <v>741</v>
@@ -8391,7 +7857,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D21" t="s">
         <v>742</v>
@@ -8405,7 +7871,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D22" t="s">
         <v>743</v>
@@ -8419,7 +7885,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D23" t="s">
         <v>744</v>
@@ -8433,7 +7899,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D24" t="s">
         <v>745</v>
@@ -8447,7 +7913,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D25" t="s">
         <v>746</v>
@@ -8461,7 +7927,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D26" t="s">
         <v>747</v>
@@ -8475,7 +7941,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D27" t="s">
         <v>748</v>
@@ -8489,7 +7955,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D28" t="s">
         <v>749</v>
@@ -8503,7 +7969,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D29" t="s">
         <v>750</v>
@@ -8517,7 +7983,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D30" t="s">
         <v>751</v>
@@ -8531,7 +7997,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>1078</v>
+        <v>1100</v>
       </c>
       <c r="D31" t="s">
         <v>752</v>
@@ -8545,7 +8011,7 @@
         <v>720</v>
       </c>
       <c r="C32" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D32" t="s">
         <v>753</v>
@@ -8559,7 +8025,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D33" t="s">
         <v>754</v>
@@ -8573,7 +8039,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D34" t="s">
         <v>755</v>
@@ -8587,7 +8053,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D35" t="s">
         <v>756</v>
@@ -8601,7 +8067,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D36" t="s">
         <v>757</v>
@@ -8615,7 +8081,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D37" t="s">
         <v>758</v>
@@ -8629,7 +8095,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D38" t="s">
         <v>759</v>
@@ -8643,7 +8109,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D39" t="s">
         <v>760</v>
@@ -8657,7 +8123,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D40" t="s">
         <v>761</v>
@@ -8671,7 +8137,7 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D41" t="s">
         <v>762</v>
@@ -8685,7 +8151,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D42" t="s">
         <v>763</v>
@@ -8699,7 +8165,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D43" t="s">
         <v>764</v>
@@ -8713,7 +8179,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D44" t="s">
         <v>765</v>
@@ -8727,7 +8193,7 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D45" t="s">
         <v>766</v>
@@ -8741,7 +8207,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D46" t="s">
         <v>767</v>
@@ -8755,7 +8221,7 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D47" t="s">
         <v>768</v>
@@ -8769,7 +8235,7 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D48" t="s">
         <v>769</v>
@@ -8783,7 +8249,7 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D49" t="s">
         <v>770</v>
@@ -8797,7 +8263,7 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D50" t="s">
         <v>771</v>
@@ -8811,7 +8277,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D51" t="s">
         <v>772</v>
@@ -8825,7 +8291,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D52" t="s">
         <v>773</v>
@@ -8839,7 +8305,7 @@
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D53" t="s">
         <v>774</v>
@@ -8853,7 +8319,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D54" t="s">
         <v>775</v>
@@ -8867,7 +8333,7 @@
         <v>720</v>
       </c>
       <c r="C55" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D55" t="s">
         <v>776</v>
@@ -8881,7 +8347,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D56" t="s">
         <v>777</v>
@@ -8895,7 +8361,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D57" t="s">
         <v>778</v>
@@ -8909,7 +8375,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D58" t="s">
         <v>779</v>
@@ -8923,7 +8389,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D59" t="s">
         <v>780</v>
@@ -8937,7 +8403,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D60" t="s">
         <v>781</v>
@@ -8951,7 +8417,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D61" t="s">
         <v>782</v>
@@ -8965,7 +8431,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D62" t="s">
         <v>783</v>
@@ -8979,7 +8445,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D63" t="s">
         <v>784</v>
@@ -8993,7 +8459,7 @@
         <v>720</v>
       </c>
       <c r="C64" t="s">
-        <v>1081</v>
+        <v>1103</v>
       </c>
       <c r="D64" t="s">
         <v>785</v>
@@ -9007,7 +8473,7 @@
         <v>720</v>
       </c>
       <c r="C65" t="s">
-        <v>1082</v>
+        <v>1104</v>
       </c>
       <c r="D65" t="s">
         <v>786</v>
@@ -9021,7 +8487,7 @@
         <v>720</v>
       </c>
       <c r="C66" t="s">
-        <v>1083</v>
+        <v>1105</v>
       </c>
       <c r="D66" t="s">
         <v>787</v>
@@ -9035,7 +8501,7 @@
         <v>720</v>
       </c>
       <c r="C67" t="s">
-        <v>1084</v>
+        <v>1106</v>
       </c>
       <c r="D67" t="s">
         <v>788</v>
@@ -9049,7 +8515,7 @@
         <v>720</v>
       </c>
       <c r="C68" t="s">
-        <v>1085</v>
+        <v>1107</v>
       </c>
       <c r="D68" t="s">
         <v>789</v>
@@ -9063,7 +8529,7 @@
         <v>720</v>
       </c>
       <c r="C69" t="s">
-        <v>1086</v>
+        <v>1108</v>
       </c>
       <c r="D69" t="s">
         <v>790</v>
@@ -9077,7 +8543,7 @@
         <v>720</v>
       </c>
       <c r="C70" t="s">
-        <v>1087</v>
+        <v>1109</v>
       </c>
       <c r="D70" t="s">
         <v>791</v>
@@ -9091,7 +8557,7 @@
         <v>720</v>
       </c>
       <c r="C71" t="s">
-        <v>1088</v>
+        <v>1110</v>
       </c>
       <c r="D71" t="s">
         <v>792</v>
@@ -9105,7 +8571,7 @@
         <v>720</v>
       </c>
       <c r="C72" t="s">
-        <v>1089</v>
+        <v>1111</v>
       </c>
       <c r="D72" t="s">
         <v>793</v>
@@ -9119,7 +8585,7 @@
         <v>720</v>
       </c>
       <c r="C73" t="s">
-        <v>1090</v>
+        <v>1112</v>
       </c>
       <c r="D73" t="s">
         <v>794</v>
@@ -9133,7 +8599,7 @@
         <v>720</v>
       </c>
       <c r="C74" t="s">
-        <v>1091</v>
+        <v>1113</v>
       </c>
       <c r="D74" t="s">
         <v>795</v>
@@ -9147,7 +8613,7 @@
         <v>720</v>
       </c>
       <c r="C75" t="s">
-        <v>1092</v>
+        <v>1114</v>
       </c>
       <c r="D75" t="s">
         <v>796</v>
@@ -9161,7 +8627,7 @@
         <v>720</v>
       </c>
       <c r="C76" t="s">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="D76" t="s">
         <v>797</v>
@@ -9175,7 +8641,7 @@
         <v>720</v>
       </c>
       <c r="C77" t="s">
-        <v>1094</v>
+        <v>1116</v>
       </c>
       <c r="D77" t="s">
         <v>798</v>
@@ -9189,7 +8655,7 @@
         <v>720</v>
       </c>
       <c r="C78" t="s">
-        <v>1095</v>
+        <v>1117</v>
       </c>
       <c r="D78" t="s">
         <v>799</v>
@@ -9199,8 +8665,11 @@
       <c r="A79" s="20" t="s">
         <v>721</v>
       </c>
+      <c r="B79" t="s">
+        <v>720</v>
+      </c>
       <c r="C79" t="s">
-        <v>1096</v>
+        <v>1118</v>
       </c>
       <c r="D79" t="s">
         <v>800</v>
@@ -9210,8 +8679,11 @@
       <c r="A80" s="20" t="s">
         <v>722</v>
       </c>
+      <c r="B80" t="s">
+        <v>720</v>
+      </c>
       <c r="C80" t="s">
-        <v>1097</v>
+        <v>1119</v>
       </c>
       <c r="D80" t="s">
         <v>801</v>
@@ -10416,7 +9888,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>149</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Arctick\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8700E994-352E-4343-A793-1EF0FE165D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C75CE7-15BB-450A-A840-6D8E52674579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Onboarding" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1144">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3221,9 +3221,6 @@
     <t>Marketplace</t>
   </si>
   <si>
-    <t>arcadierteam@gmail.com</t>
-  </si>
-  <si>
     <t>Theme</t>
   </si>
   <si>
@@ -3311,94 +3308,169 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo2.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\coverimage3.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\1.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\2.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\3.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\4.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\5.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\6.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\7.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\8.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\9.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\10.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\11.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\12.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\13.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\14.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\15.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\16.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\17.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\18.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\19.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\20.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\21.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\22.png</t>
+  </si>
+  <si>
+    <t>C:\\Katalon\\Arctick\\Images\\Category\\23.png</t>
+  </si>
+  <si>
+    <t>Bespoke</t>
+  </si>
+  <si>
+    <t>arcadierteam1@gmail.com</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\logo2.jpg</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\LogoLayout\\coverimage3.jpg</t>
-  </si>
-  <si>
-    <t>0319BPDEL2</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\1.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\2.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\3.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\4.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\5.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\6.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\7.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\8.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\9.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\10.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\11.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\12.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\13.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\14.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\15.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\16.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\17.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\18.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\19.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\20.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\21.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\22.png</t>
-  </si>
-  <si>
-    <t>C:\\Katalon\\Arctick\\Images\\Category\\23.png</t>
+    <t>0413BP01</t>
+  </si>
+  <si>
+    <t>0413BP02</t>
+  </si>
+  <si>
+    <t>0413BP03</t>
+  </si>
+  <si>
+    <t>0413BP04</t>
+  </si>
+  <si>
+    <t>0413BP05</t>
+  </si>
+  <si>
+    <t>0413BP06</t>
+  </si>
+  <si>
+    <t>0413ST01</t>
+  </si>
+  <si>
+    <t>0413ST02</t>
+  </si>
+  <si>
+    <t>0413ST03</t>
+  </si>
+  <si>
+    <t>0413ST04</t>
+  </si>
+  <si>
+    <t>0413ST05</t>
+  </si>
+  <si>
+    <t>0413ST06</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>0415BP01</t>
+  </si>
+  <si>
+    <t>0415BP02</t>
+  </si>
+  <si>
+    <t>0415BP03</t>
+  </si>
+  <si>
+    <t>0415BP04</t>
+  </si>
+  <si>
+    <t>0415BP05</t>
+  </si>
+  <si>
+    <t>0415BP06</t>
+  </si>
+  <si>
+    <t>0415BP07</t>
+  </si>
+  <si>
+    <t>0415BP08</t>
+  </si>
+  <si>
+    <t>0415BP09</t>
+  </si>
+  <si>
+    <t>0415BP10</t>
+  </si>
+  <si>
+    <t>0415BP11</t>
+  </si>
+  <si>
+    <t>0415BP12</t>
   </si>
 </sst>
 </file>
@@ -3953,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,22 +4057,22 @@
         <v>1054</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>1047</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>1065</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>1066</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>1067</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>1068</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>123</v>
@@ -4024,33 +4096,33 @@
         <v>810</v>
       </c>
       <c r="O1" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>1069</v>
       </c>
-      <c r="P1" s="31" t="s">
-        <v>1070</v>
-      </c>
       <c r="Q1" s="31" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="S1" s="31" t="s">
         <v>1053</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1096</v>
+        <v>1132</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>1055</v>
@@ -4065,97 +4137,602 @@
         <v>1058</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>1096</v>
+        <v>1119</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>1059</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>1060</v>
+        <v>1117</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="Q2" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T2" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>1091</v>
       </c>
-      <c r="R2" s="31" t="s">
-        <v>1072</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>1089</v>
-      </c>
-      <c r="T2" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="34"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34"/>
+      <c r="P3" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T3" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T4" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T5" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T6" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T8" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T10" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T11" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T13" s="31">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2:N5" r:id="rId1" display="arcadierteam@gmail.com" xr:uid="{A323ECED-99C2-4680-9F28-D97EFEE86C98}"/>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{8A76E050-8EF6-4FD3-8CF6-7FF6987A8759}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{BC0591D0-A454-41C4-80D2-DDF6EEFFCAD8}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{D671B2C1-66B3-40D8-BF8F-29F0C917790C}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{F8539EC1-1531-4BE3-8E66-D509BE6FBA12}"/>
+    <hyperlink ref="N6" r:id="rId5" xr:uid="{433328D5-5FC4-4F8E-989F-417FBFA0930D}"/>
+    <hyperlink ref="N7" r:id="rId6" xr:uid="{E1E82462-8388-44C9-8E36-029AC5B348BA}"/>
+    <hyperlink ref="N8" r:id="rId7" xr:uid="{C030F0E4-EF6B-4533-9DA0-A060C27AAFE1}"/>
+    <hyperlink ref="N9" r:id="rId8" xr:uid="{5F385A31-0982-4CD8-A7E9-C92F4222F3C8}"/>
+    <hyperlink ref="N10" r:id="rId9" xr:uid="{24C453BB-B3A6-4A8F-ABA9-FE4B738A3BE7}"/>
+    <hyperlink ref="N11" r:id="rId10" xr:uid="{8BAA6E69-887C-474F-AEDA-FA90EA9F159E}"/>
+    <hyperlink ref="N12" r:id="rId11" xr:uid="{BEB37C79-198B-4A5B-A5CE-3BBBF10301EE}"/>
+    <hyperlink ref="N13" r:id="rId12" xr:uid="{A3EEE9F7-0ECD-4F85-A9C4-EE925D2CCF0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -7464,87 +8041,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -7557,7 +8134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D89469-70B5-42D0-9A59-1DD22F5E00A8}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C85" activeCellId="1" sqref="B80 C85"/>
     </sheetView>
   </sheetViews>
@@ -7591,7 +8168,7 @@
         <v>720</v>
       </c>
       <c r="C2" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D2" t="s">
         <v>723</v>
@@ -7605,7 +8182,7 @@
         <v>720</v>
       </c>
       <c r="C3" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D3" t="s">
         <v>724</v>
@@ -7619,7 +8196,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D4" t="s">
         <v>725</v>
@@ -7633,7 +8210,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D5" t="s">
         <v>726</v>
@@ -7647,7 +8224,7 @@
         <v>720</v>
       </c>
       <c r="C6" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D6" t="s">
         <v>727</v>
@@ -7661,7 +8238,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D7" t="s">
         <v>728</v>
@@ -7675,7 +8252,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D8" t="s">
         <v>729</v>
@@ -7689,7 +8266,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D9" t="s">
         <v>730</v>
@@ -7703,7 +8280,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D10" t="s">
         <v>731</v>
@@ -7717,7 +8294,7 @@
         <v>720</v>
       </c>
       <c r="C11" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D11" t="s">
         <v>732</v>
@@ -7731,7 +8308,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D12" t="s">
         <v>733</v>
@@ -7745,7 +8322,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D13" t="s">
         <v>734</v>
@@ -7759,7 +8336,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D14" t="s">
         <v>735</v>
@@ -7773,7 +8350,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D15" t="s">
         <v>736</v>
@@ -7787,7 +8364,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D16" t="s">
         <v>737</v>
@@ -7801,7 +8378,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D17" t="s">
         <v>738</v>
@@ -7815,7 +8392,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D18" t="s">
         <v>739</v>
@@ -7829,7 +8406,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D19" t="s">
         <v>740</v>
@@ -7843,7 +8420,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D20" t="s">
         <v>741</v>
@@ -7857,7 +8434,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D21" t="s">
         <v>742</v>
@@ -7871,7 +8448,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D22" t="s">
         <v>743</v>
@@ -7885,7 +8462,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D23" t="s">
         <v>744</v>
@@ -7899,7 +8476,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D24" t="s">
         <v>745</v>
@@ -7913,7 +8490,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D25" t="s">
         <v>746</v>
@@ -7927,7 +8504,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D26" t="s">
         <v>747</v>
@@ -7941,7 +8518,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D27" t="s">
         <v>748</v>
@@ -7955,7 +8532,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D28" t="s">
         <v>749</v>
@@ -7969,7 +8546,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D29" t="s">
         <v>750</v>
@@ -7983,7 +8560,7 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D30" t="s">
         <v>751</v>
@@ -7997,7 +8574,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D31" t="s">
         <v>752</v>
@@ -8011,7 +8588,7 @@
         <v>720</v>
       </c>
       <c r="C32" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D32" t="s">
         <v>753</v>
@@ -8025,7 +8602,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D33" t="s">
         <v>754</v>
@@ -8039,7 +8616,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D34" t="s">
         <v>755</v>
@@ -8053,7 +8630,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D35" t="s">
         <v>756</v>
@@ -8067,7 +8644,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D36" t="s">
         <v>757</v>
@@ -8081,7 +8658,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D37" t="s">
         <v>758</v>
@@ -8095,7 +8672,7 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D38" t="s">
         <v>759</v>
@@ -8109,7 +8686,7 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D39" t="s">
         <v>760</v>
@@ -8123,7 +8700,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D40" t="s">
         <v>761</v>
@@ -8137,7 +8714,7 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D41" t="s">
         <v>762</v>
@@ -8151,7 +8728,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D42" t="s">
         <v>763</v>
@@ -8165,7 +8742,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D43" t="s">
         <v>764</v>
@@ -8179,7 +8756,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D44" t="s">
         <v>765</v>
@@ -8193,7 +8770,7 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D45" t="s">
         <v>766</v>
@@ -8207,7 +8784,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D46" t="s">
         <v>767</v>
@@ -8221,7 +8798,7 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D47" t="s">
         <v>768</v>
@@ -8235,7 +8812,7 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D48" t="s">
         <v>769</v>
@@ -8249,7 +8826,7 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D49" t="s">
         <v>770</v>
@@ -8263,7 +8840,7 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D50" t="s">
         <v>771</v>
@@ -8277,7 +8854,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D51" t="s">
         <v>772</v>
@@ -8291,7 +8868,7 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D52" t="s">
         <v>773</v>
@@ -8305,7 +8882,7 @@
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D53" t="s">
         <v>774</v>
@@ -8319,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D54" t="s">
         <v>775</v>
@@ -8333,7 +8910,7 @@
         <v>720</v>
       </c>
       <c r="C55" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D55" t="s">
         <v>776</v>
@@ -8347,7 +8924,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D56" t="s">
         <v>777</v>
@@ -8361,7 +8938,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D57" t="s">
         <v>778</v>
@@ -8375,7 +8952,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D58" t="s">
         <v>779</v>
@@ -8389,7 +8966,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D59" t="s">
         <v>780</v>
@@ -8403,7 +8980,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D60" t="s">
         <v>781</v>
@@ -8417,7 +8994,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D61" t="s">
         <v>782</v>
@@ -8431,7 +9008,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D62" t="s">
         <v>783</v>
@@ -8445,7 +9022,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D63" t="s">
         <v>784</v>
@@ -8459,7 +9036,7 @@
         <v>720</v>
       </c>
       <c r="C64" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D64" t="s">
         <v>785</v>
@@ -8473,7 +9050,7 @@
         <v>720</v>
       </c>
       <c r="C65" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D65" t="s">
         <v>786</v>
@@ -8487,7 +9064,7 @@
         <v>720</v>
       </c>
       <c r="C66" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="D66" t="s">
         <v>787</v>
@@ -8501,7 +9078,7 @@
         <v>720</v>
       </c>
       <c r="C67" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D67" t="s">
         <v>788</v>
@@ -8515,7 +9092,7 @@
         <v>720</v>
       </c>
       <c r="C68" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="D68" t="s">
         <v>789</v>
@@ -8529,7 +9106,7 @@
         <v>720</v>
       </c>
       <c r="C69" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D69" t="s">
         <v>790</v>
@@ -8543,7 +9120,7 @@
         <v>720</v>
       </c>
       <c r="C70" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D70" t="s">
         <v>791</v>
@@ -8557,7 +9134,7 @@
         <v>720</v>
       </c>
       <c r="C71" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D71" t="s">
         <v>792</v>
@@ -8571,7 +9148,7 @@
         <v>720</v>
       </c>
       <c r="C72" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D72" t="s">
         <v>793</v>
@@ -8585,7 +9162,7 @@
         <v>720</v>
       </c>
       <c r="C73" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D73" t="s">
         <v>794</v>
@@ -8599,7 +9176,7 @@
         <v>720</v>
       </c>
       <c r="C74" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D74" t="s">
         <v>795</v>
@@ -8613,7 +9190,7 @@
         <v>720</v>
       </c>
       <c r="C75" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D75" t="s">
         <v>796</v>
@@ -8627,7 +9204,7 @@
         <v>720</v>
       </c>
       <c r="C76" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D76" t="s">
         <v>797</v>
@@ -8641,7 +9218,7 @@
         <v>720</v>
       </c>
       <c r="C77" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D77" t="s">
         <v>798</v>
@@ -8655,7 +9232,7 @@
         <v>720</v>
       </c>
       <c r="C78" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D78" t="s">
         <v>799</v>
@@ -8669,7 +9246,7 @@
         <v>720</v>
       </c>
       <c r="C79" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D79" t="s">
         <v>800</v>
@@ -8683,7 +9260,7 @@
         <v>720</v>
       </c>
       <c r="C80" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D80" t="s">
         <v>801</v>
@@ -9888,7 +10465,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>149</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Arctick\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C75CE7-15BB-450A-A840-6D8E52674579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5966B247-825E-461C-809A-FD276EAC7231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1121">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3389,88 +3389,19 @@
     <t>C:\\Katalon\\Arctick\\Images\\Category\\23.png</t>
   </si>
   <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
     <t>arcadierteam1@gmail.com</t>
   </si>
   <si>
+    <t>Space</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
-    <t>0413BP01</t>
-  </si>
-  <si>
-    <t>0413BP02</t>
-  </si>
-  <si>
-    <t>0413BP03</t>
-  </si>
-  <si>
-    <t>0413BP04</t>
-  </si>
-  <si>
-    <t>0413BP05</t>
-  </si>
-  <si>
-    <t>0413BP06</t>
-  </si>
-  <si>
-    <t>0413ST01</t>
-  </si>
-  <si>
-    <t>0413ST02</t>
-  </si>
-  <si>
-    <t>0413ST03</t>
-  </si>
-  <si>
-    <t>0413ST04</t>
-  </si>
-  <si>
-    <t>0413ST05</t>
-  </si>
-  <si>
-    <t>0413ST06</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>0415BP01</t>
-  </si>
-  <si>
-    <t>0415BP02</t>
-  </si>
-  <si>
-    <t>0415BP03</t>
-  </si>
-  <si>
-    <t>0415BP04</t>
-  </si>
-  <si>
-    <t>0415BP05</t>
-  </si>
-  <si>
-    <t>0415BP06</t>
-  </si>
-  <si>
-    <t>0415BP07</t>
-  </si>
-  <si>
-    <t>0415BP08</t>
-  </si>
-  <si>
-    <t>0415BP09</t>
-  </si>
-  <si>
-    <t>0415BP10</t>
-  </si>
-  <si>
-    <t>0415BP11</t>
-  </si>
-  <si>
-    <t>0415BP12</t>
+    <t>0514ST1</t>
+  </si>
+  <si>
+    <t>0514ST3</t>
   </si>
 </sst>
 </file>
@@ -4025,10 +3956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEA25A-B9EE-4434-8603-4CD75E6C0C65}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,7 +3975,7 @@
     <col min="11" max="11" width="20.42578125" style="31" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" style="31" customWidth="1"/>
     <col min="13" max="13" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="31" customWidth="1"/>
     <col min="15" max="15" width="52.140625" style="31" customWidth="1"/>
     <col min="16" max="16" width="70.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23.85546875" style="31" customWidth="1"/>
@@ -4114,7 +4045,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>1118</v>
       </c>
@@ -4122,7 +4053,7 @@
         <v>1063</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>1055</v>
@@ -4143,7 +4074,7 @@
         <v>1059</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>1091</v>
@@ -4152,7 +4083,7 @@
         <v>1092</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="R2" s="31" t="s">
         <v>1071</v>
@@ -4161,578 +4092,14 @@
         <v>1088</v>
       </c>
       <c r="T2" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>1120</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>1116</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T3" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>1121</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>1116</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T4" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>1116</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T5" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>1116</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T6" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q7" s="34" t="s">
-        <v>1116</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T7" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>1125</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T10" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S11" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T11" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>1129</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S12" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T12" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>1058</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>1130</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>1088</v>
-      </c>
-      <c r="T13" s="31">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{8A76E050-8EF6-4FD3-8CF6-7FF6987A8759}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{BC0591D0-A454-41C4-80D2-DDF6EEFFCAD8}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{D671B2C1-66B3-40D8-BF8F-29F0C917790C}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{F8539EC1-1531-4BE3-8E66-D509BE6FBA12}"/>
-    <hyperlink ref="N6" r:id="rId5" xr:uid="{433328D5-5FC4-4F8E-989F-417FBFA0930D}"/>
-    <hyperlink ref="N7" r:id="rId6" xr:uid="{E1E82462-8388-44C9-8E36-029AC5B348BA}"/>
-    <hyperlink ref="N8" r:id="rId7" xr:uid="{C030F0E4-EF6B-4533-9DA0-A060C27AAFE1}"/>
-    <hyperlink ref="N9" r:id="rId8" xr:uid="{5F385A31-0982-4CD8-A7E9-C92F4222F3C8}"/>
-    <hyperlink ref="N10" r:id="rId9" xr:uid="{24C453BB-B3A6-4A8F-ABA9-FE4B738A3BE7}"/>
-    <hyperlink ref="N11" r:id="rId10" xr:uid="{8BAA6E69-887C-474F-AEDA-FA90EA9F159E}"/>
-    <hyperlink ref="N12" r:id="rId11" xr:uid="{BEB37C79-198B-4A5B-A5CE-3BBBF10301EE}"/>
-    <hyperlink ref="N13" r:id="rId12" xr:uid="{A3EEE9F7-0ECD-4F85-A9C4-EE925D2CCF0F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
